--- a/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_36.xlsx
+++ b/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_36.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>S&amp;P500_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>S&amp;P500_CNY/USD</t>
   </si>
   <si>
-    <t>S&amp;P500_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>S&amp;P500_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>S&amp;P500_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OECD 소비자물가</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>S&amp;P500_두바이유가</t>
   </si>
   <si>
-    <t>S&amp;P500_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>S&amp;P500_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>S&amp;P500_미국 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>S&amp;P500_발틱 해운임지수</t>
   </si>
   <si>
-    <t>S&amp;P500_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>S&amp;P500_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>S&amp;P500_유로존 Core CPI</t>
   </si>
   <si>
-    <t>S&amp;P500_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>S&amp;P500_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>S&amp;P500_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>S&amp;P500_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>S&amp;P500_일본 ESI</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>S&amp;P500_중국 M1 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>S&amp;P500_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>S&amp;P500_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2894,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -2903,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
@@ -2918,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -2927,10 +2702,10 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2939,158 +2714,158 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1</v>
-      </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
@@ -3098,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY3" t="n">
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3119,16 +2894,16 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
@@ -3140,43 +2915,43 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
@@ -3188,82 +2963,82 @@
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL3" t="n">
         <v>3</v>
       </c>
       <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
         <v>2</v>
       </c>
-      <c r="DO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -3272,34 +3047,34 @@
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
         <v>2</v>
@@ -3311,13 +3086,13 @@
         <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
@@ -3326,274 +3101,274 @@
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FG3" t="n">
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
         <v>2</v>
       </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FQ3" t="n">
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL3" t="n">
         <v>2</v>
       </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
         <v>2</v>
       </c>
-      <c r="GB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>3</v>
-      </c>
       <c r="IG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IH3" t="n">
         <v>0</v>
@@ -3608,921 +3383,771 @@
         <v>3</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM3" t="n">
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IP3" t="n">
         <v>0</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9500445493439132</v>
+        <v>-0.9485252682274852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8867669629757692</v>
+        <v>0.9477020895588193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8819118503433335</v>
+        <v>0.7915282431806393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6977277205897047</v>
+        <v>0.8870437099706554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6697184256760063</v>
+        <v>0.6272454071895557</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6266927182084265</v>
+        <v>0.2573843470555209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9486133822666137</v>
+        <v>0.971973401856512</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9560650626597393</v>
+        <v>0.9360694461903405</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9471224268341488</v>
+        <v>0.4870662449389083</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9636035160341019</v>
+        <v>0.4235165103096736</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9314109538713934</v>
+        <v>-0.552250917223164</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8954185861220334</v>
+        <v>0.9693013237525115</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9224029508126397</v>
+        <v>-0.8133228909561546</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9227676736934652</v>
+        <v>0.8774017800705243</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3312014567182338</v>
+        <v>0.7892708106784322</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6323661769520589</v>
+        <v>0.8760607359744453</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8218679399724995</v>
+        <v>0.7125660534189177</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9302702844910964</v>
+        <v>0.7250729169981009</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8721718965294862</v>
+        <v>-0.7391655359666113</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7993450734598896</v>
+        <v>0.9113558273331195</v>
       </c>
       <c r="V4" t="n">
-        <v>0.737126931642418</v>
+        <v>0.4879065244998252</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8056410005720125</v>
+        <v>0.9414954907257186</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6286746868543881</v>
+        <v>0.8922983085392235</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4769661197694677</v>
+        <v>-0.1061321352030215</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7626281386372447</v>
+        <v>0.8471014503291433</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8712208928582109</v>
+        <v>0.5674699844281222</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2432358861458852</v>
+        <v>0.9204554078827603</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.946360787678198</v>
+        <v>0.6598159423064605</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.891134750382695</v>
+        <v>0.9419003973532404</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1337027237615109</v>
+        <v>0.6662162957239585</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8463754775323358</v>
+        <v>0.5608588272215036</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5013727620541779</v>
+        <v>0.3501245967803745</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9344441663657245</v>
+        <v>-0.4483191031194685</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.551681253401777</v>
+        <v>0.9273405923028466</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.935171054681192</v>
+        <v>-0.1243652142911948</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6255972888771151</v>
+        <v>0.8225440233181762</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3410181393173993</v>
+        <v>-0.1002905901106576</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2539885087169041</v>
+        <v>-0.3524990958868189</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.4211911010649329</v>
+        <v>-0.7847689364209507</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9426811863667878</v>
+        <v>0.9614692158671483</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3444126635024455</v>
+        <v>0.0987623362765755</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.7565609109301128</v>
+        <v>-0.8074938532183162</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.310517023501764</v>
+        <v>-0.6449160098629146</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.2202631989523785</v>
+        <v>0.9723076024960803</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.6707262058172466</v>
+        <v>0.992029229603954</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9156878287499821</v>
+        <v>0.994153407519459</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1127963156525756</v>
+        <v>0.954786151229072</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8027715030672904</v>
+        <v>0.9626028034677168</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.793953567157531</v>
+        <v>0.9744835933522428</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9308972421333958</v>
+        <v>0.9938190661191052</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9757658787896061</v>
+        <v>0.9937614566812896</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9809327361761431</v>
+        <v>0.9389851429851126</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.8511352812283379</v>
+        <v>0.8902367266672978</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9144110984770538</v>
+        <v>0.8760142125407488</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.94530900306027</v>
+        <v>0.7717178418181504</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9805945160403794</v>
+        <v>-0.1102034597092112</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9818362719190935</v>
+        <v>0.9078221974369405</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.8458180493357604</v>
+        <v>0.3465675127086884</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.7650485393322285</v>
+        <v>0.8938692251405825</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8537356056719865</v>
+        <v>0.1874852535830219</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.5770687086491355</v>
+        <v>0.9042164934576884</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.1054032977054394</v>
+        <v>0.8893603628835143</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1116324849629662</v>
+        <v>0.5314677462789477</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8761224915326498</v>
+        <v>-0.4639297384181174</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.9040690135940493</v>
+        <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9432093793496525</v>
+        <v>0.8925386624497065</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.4924896640330709</v>
+        <v>0.9911260290560221</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8838858777514227</v>
+        <v>0.5067972041654503</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1869755408298786</v>
+        <v>0.9713657672550334</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8419703935910172</v>
+        <v>0.8807967825481845</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8505036322125221</v>
+        <v>0.1218135920588295</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.505086088668514</v>
+        <v>0.7358643385875195</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3573161591320991</v>
+        <v>0.7414157635740858</v>
       </c>
       <c r="BW4" t="n">
-        <v>1</v>
+        <v>0.7866767623969426</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.8923845236143234</v>
+        <v>-0.6899245654896645</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9876097225857101</v>
+        <v>-0.07975420843782957</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7950951747828082</v>
+        <v>0.5100728958025592</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9595258817674066</v>
+        <v>0.8648251995312861</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.7734543618815845</v>
+        <v>0.8265803936131154</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.2624862316637191</v>
+        <v>0.6860437248646166</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8101719641110976</v>
+        <v>0.2006649067283801</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.5814974807516555</v>
+        <v>0.6504120100598849</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7287410004999052</v>
+        <v>0.732666315778511</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.798144936272939</v>
+        <v>-0.4297134808139789</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.1559426024660227</v>
+        <v>0.8630231507633833</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.3452879207036245</v>
+        <v>-0.1690926107031242</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.7350733908657134</v>
+        <v>-0.2308282021587046</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.7491650458897871</v>
+        <v>-0.1799670369554694</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.4693107053266856</v>
+        <v>0.08959764953675906</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.283586233703062</v>
+        <v>0.190116152107592</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6743993986307188</v>
+        <v>0.9796085075725568</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7169555867939007</v>
+        <v>-0.6470655814168071</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6399167530209978</v>
+        <v>0.7153836453993125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.6597035017230342</v>
+        <v>0.9774101015390102</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.1665314720805121</v>
+        <v>-0.6731387093267936</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.2628078625927832</v>
+        <v>0.9338202439353445</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.1818453070231561</v>
+        <v>0.6505592264212272</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1819496751779817</v>
+        <v>0.9343415020052211</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.3246097810854764</v>
+        <v>0.9155737860157203</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.935143929333824</v>
+        <v>0.8879833902585952</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.5110068819116874</v>
+        <v>0.933563027556801</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.3443932228764734</v>
+        <v>-0.5954661896693708</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9477332490668938</v>
+        <v>0.8703732507588549</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3683038561090849</v>
+        <v>0.3196387295427455</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.8560361073420981</v>
+        <v>0.8873556729948218</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.6345581270081723</v>
+        <v>-0.6497196780693451</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.9223227400530627</v>
+        <v>0.6102582209943291</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9064601054562975</v>
+        <v>0.6967670131966374</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8681268514320566</v>
+        <v>0.1552082943653579</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9388437275323355</v>
+        <v>0.8962536891773969</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.5595578706938528</v>
+        <v>-0.4020285173113485</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.8043083252345438</v>
+        <v>0.856751937907509</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.2039511491906214</v>
+        <v>-0.3531322482106067</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.8842206940498528</v>
+        <v>0.5563355474135261</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.7489094672502939</v>
+        <v>0.2531982028787157</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7023767740824506</v>
+        <v>-0.7556746559575066</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.6843269141096147</v>
+        <v>0.8258957369637033</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.04546175024853606</v>
+        <v>0.4356869125158417</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.6878533062856944</v>
+        <v>-0.2085808933156984</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8776276559136468</v>
+        <v>0.9796085075725568</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8711927993666292</v>
+        <v>0.9663137933101446</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2511477672582769</v>
+        <v>0.8498047952832779</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.820486403148029</v>
+        <v>0.7776478612860329</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.4557832111299888</v>
+        <v>0.93030427499114</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.5751522498046948</v>
+        <v>0.4297318063488035</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2339359336856904</v>
+        <v>0.803858530133193</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.6262085460620888</v>
+        <v>-0.9103381884205174</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8127898192218166</v>
+        <v>0.9915073928925209</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.4234885127063021</v>
+        <v>0.7609508853229503</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3030461377521132</v>
+        <v>0.9621164218745908</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.2392979347599976</v>
+        <v>0.9702046492683289</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.8844655416322481</v>
+        <v>0.7168846251947927</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.935143929333824</v>
+        <v>-0.7190242144982972</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9659153365446304</v>
+        <v>0.5582790291025599</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.654301241054268</v>
+        <v>-0.1843384306005272</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6614681531267745</v>
+        <v>0.8009945143525654</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9323139665451975</v>
+        <v>0.9424760694930985</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.2643622975627317</v>
+        <v>-0.1908236128722944</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8192652108448034</v>
+        <v>0.8988445190913404</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.8567007901572745</v>
+        <v>0.9480120214919704</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9924985288267897</v>
+        <v>0.9039029347279125</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7129634147029679</v>
+        <v>0.886899905060639</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9559172786361857</v>
+        <v>0.9345223627469832</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9547125869712008</v>
+        <v>-0.9780962492281687</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5999490048202589</v>
+        <v>0.9488926391339719</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7763478984633919</v>
+        <v>0.2644092256328829</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.1674289335490685</v>
+        <v>0.6414795183095025</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2174123589304095</v>
+        <v>-0.8870886380445953</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.6398181960417944</v>
+        <v>-0.9394023518622376</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9159311188129373</v>
+        <v>-0.9407785999938524</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.47833840710721</v>
+        <v>0.775948201929371</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8871149716670109</v>
+        <v>0.8184651421816678</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9376429562778673</v>
+        <v>0.8196325211846265</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8950519498918825</v>
+        <v>0.6801909284638626</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8794565609673426</v>
+        <v>0.2833204556011282</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.9149226763851304</v>
+        <v>-0.3000593510899627</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9712952309485624</v>
+        <v>-0.2012731085096995</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9422720005792146</v>
+        <v>0.4235165103096736</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2526863899050737</v>
+        <v>0.8626646395850023</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.2858648579405758</v>
+        <v>0.2007971113130332</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8588658497001512</v>
+        <v>0.5315940542220242</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9417403504794546</v>
+        <v>-0.1536245419553849</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9404212551719947</v>
+        <v>0.83601515878183</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7098271984935742</v>
+        <v>-0.6537993067892542</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7319767436680169</v>
+        <v>-0.3282350725020208</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7946845240806509</v>
+        <v>-0.5679724081309974</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.968299278651661</v>
+        <v>-0.1685551227669242</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6507920194972983</v>
+        <v>0.9193018366545973</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0.2011291551725296</v>
+        <v>0.4833001126041196</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.32963044015701</v>
+        <v>-0.2037794612153939</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.3964277156909027</v>
+        <v>-0.8233668858668302</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.6323661769520589</v>
+        <v>0.9161576873826709</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8939572293845657</v>
+        <v>0.3629031808743206</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0.4002887730472091</v>
+        <v>0.2136646956175311</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5853029776267789</v>
+        <v>0.7840914021880159</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.3100091815875969</v>
+        <v>0.9193018366545973</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8384055530929791</v>
+        <v>0.7291107663779776</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.5493816106238467</v>
+        <v>-0.3199841597376391</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.2159452582494644</v>
+        <v>0.7649492980602249</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4113598504476847</v>
+        <v>-0.7248549595982853</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.5035396994270134</v>
+        <v>-0.2835296813583757</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.3632212497566321</v>
+        <v>-0.1806180784356828</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0.1078638807661207</v>
+        <v>0.740182715397196</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.8922530781083865</v>
+        <v>0.6085154161831555</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.3155335080755126</v>
+        <v>0.6931272038838967</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.175643659169457</v>
+        <v>0.9023277224763822</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.7983474729748733</v>
+        <v>0.853069410154955</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8999992786388566</v>
+        <v>0.1736113173652358</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3811552535475328</v>
+        <v>0.8317859943931676</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8942173578611252</v>
+        <v>-0.8771397788904171</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.5781960473590446</v>
+        <v>-0.440628506457598</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7012596455636179</v>
+        <v>0.1127756716238061</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.8922530781083865</v>
+        <v>0.6072239737986224</v>
       </c>
       <c r="GM4" t="n">
-        <v>-0.3501091310452108</v>
+        <v>0.9415983281643276</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8760100495853353</v>
+        <v>0.8996011787112712</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.440806861206024</v>
+        <v>-0.6224150446172999</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7079180590736944</v>
+        <v>-0.7692778544955274</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.6671136010773967</v>
+        <v>-0.4406285064575977</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.1068229329929248</v>
+        <v>-0.4406285064575977</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.3305856327357495</v>
+        <v>0.8281954491467826</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.2915954132731783</v>
+        <v>0.7279518834773513</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.673870162399876</v>
+        <v>-0.440628506457598</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8188417650200159</v>
+        <v>0.3007368778039235</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.4203932789566811</v>
+        <v>0.3897876684114487</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5267491112098501</v>
+        <v>0.6408428148495126</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9072588436691511</v>
+        <v>0.714039208575115</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.747062752088955</v>
+        <v>-0.7270804646982193</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2047600470727113</v>
+        <v>0.8601553077718438</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.7811656436596039</v>
+        <v>0.7871475816950617</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8562724678732669</v>
+        <v>-0.5408835282685017</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.413546712476562</v>
+        <v>-0.6604504801571999</v>
       </c>
       <c r="HE4" t="n">
-        <v>0.06389640405447242</v>
+        <v>0.1613110792292043</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.5047980984244528</v>
+        <v>-0.1890821784318201</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9065978216795603</v>
+        <v>0.05771092312573799</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7583868506053001</v>
+        <v>0.9769470980323437</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9393194647016282</v>
+        <v>-0.814970633643911</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.806473930842972</v>
+        <v>0.2480337772705867</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7604240928168018</v>
+        <v>-0.3367100290221832</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.4135467124765617</v>
+        <v>0.7934783730053016</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.4135467124765617</v>
+        <v>0.7627955159506541</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8195618337995254</v>
+        <v>-0.1730573602589361</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7260096121714614</v>
+        <v>-0.2224864255098915</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.413546712476562</v>
+        <v>-0.323853160301616</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1910533467559019</v>
+        <v>-0.212286347299414</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.5146912130035569</v>
+        <v>-0.7363234598839391</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4903313397209424</v>
+        <v>0.9674068732792623</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.8153507446927221</v>
+        <v>-0.3310302811442664</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.7007702711388749</v>
+        <v>0.4689838526672742</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9228959688135543</v>
+        <v>0.3454578018087642</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9090489486609796</v>
+        <v>0.8392573959053579</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8974556891635452</v>
+        <v>0.7335673050895272</v>
       </c>
       <c r="HY4" t="n">
-        <v>-0.1870061950432323</v>
+        <v>0.5989187206026214</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.9130463604811727</v>
+        <v>-0.2796829924879339</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6431056046882681</v>
+        <v>-0.5278998584659598</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.5210199706044354</v>
+        <v>-0.2182683689167156</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.5236423515591048</v>
+        <v>-0.2223644330400699</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4147121968308374</v>
+        <v>-0.8220146353639167</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.05774723878620758</v>
+        <v>0.7236314305228645</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.2523285952045355</v>
+        <v>0.1537369727614419</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9397380825842963</v>
+        <v>-0.777219109727835</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.756052376602014</v>
+        <v>-0.5749174527845936</v>
       </c>
       <c r="II4" t="n">
-        <v>0.37135254289243</v>
+        <v>0.7236314305228645</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.5408157418107522</v>
+        <v>0.7609731199297439</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.3652914936862429</v>
+        <v>-0.5607222243311117</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.6598774717776514</v>
+        <v>0.3097471780710851</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1521710916110024</v>
+        <v>-0.1851555227508289</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.07304271411656156</v>
+        <v>-0.3345666478496969</v>
       </c>
       <c r="IO4" t="n">
-        <v>0.2726793804515006</v>
+        <v>0.8979852930220766</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2514221473267864</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8164832426865527</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.8781733730035047</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4148929953238432</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.5406495418909945</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.4496424941928187</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8618816685885065</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.810200921701909</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7828774895641943</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3387978421258656</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5523616893418454</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.06358432750543927</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>0.2894728363978822</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7502211239125665</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7697777063672744</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.247611381815242</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8525533130742017</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.4868073530564428</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7697777063672744</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8324174619502988</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.6121462331784719</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3457484053048488</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.4234597166623917</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.2626245512902572</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.5056022680467516</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.2758079901643068</v>
+        <v>0.7461991342280424</v>
       </c>
     </row>
   </sheetData>
